--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Mat</t>
   </si>
@@ -82,214 +82,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ARMAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
+    <t>CLEMENTE</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>DORANTES</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>CHONCOA</t>
-  </si>
-  <si>
-    <t>CUAUTLE</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DURAN</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>TLATEMOHUE</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>CHACON</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>XOCHICALE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>PAYRO</t>
-  </si>
-  <si>
-    <t>JOSE GUSTAVO</t>
-  </si>
-  <si>
-    <t>SERGIO GISELL</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>YOSGART</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>IRVING JESUS</t>
-  </si>
-  <si>
-    <t>GABRIEL URYEL</t>
-  </si>
-  <si>
-    <t>JOSE GUADALUPE</t>
-  </si>
-  <si>
-    <t>CARMEN STEFANY</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>EDILBERTO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>SANDRA GABRIELA</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL GUADALUPE</t>
-  </si>
-  <si>
-    <t>JESUS AIN</t>
-  </si>
-  <si>
-    <t>NAHUM OMAR</t>
-  </si>
-  <si>
-    <t>RODRIGO ANTONIO</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
-  </si>
-  <si>
-    <t>RAMSES</t>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>ALEYDA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
   </si>
 </sst>
 </file>
@@ -690,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -699,13 +534,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -836,18 +665,15 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -862,16 +688,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.22</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -885,16 +714,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,16 +740,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>95.83</v>
+      </c>
+      <c r="H5">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -970,18 +805,15 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -999,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>60.87</v>
+        <v>65.22</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1025,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>72.73</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1051,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>83.33</v>
+        <v>95.83</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +902,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1105,22 +937,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920304</v>
+        <v>24330051920274</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1128,554 +960,94 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920090</v>
+        <v>24330051920255</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920127</v>
+        <v>24330051920369</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920098</v>
+        <v>23330051920312</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920036</v>
+        <v>22330051920007</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>24330051920148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24330051920149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>24330051920144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24330051920256</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23330051920224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>23330051920030</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920313</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920303</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920410</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920343</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920282</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>23330051920232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>24330051920131</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>24330051920150</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920302</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24330051920102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920147</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -82,19 +82,25 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
+    <t>REYES</t>
   </si>
   <si>
     <t>JUAREZ</t>
@@ -103,13 +109,16 @@
     <t>ROSAS</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>ERWIN ISRAEL</t>
   </si>
   <si>
     <t>BRYAN</t>
@@ -118,13 +127,13 @@
     <t>ERNESTO</t>
   </si>
   <si>
+    <t>ALEYDA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
     <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>ALEYDA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
   </si>
 </sst>
 </file>
@@ -902,7 +911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,16 +946,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920274</v>
+        <v>24330051920393</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -960,16 +969,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920255</v>
+        <v>24330051920274</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -983,16 +992,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920369</v>
+        <v>24330051920255</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1012,10 +1021,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1035,10 +1044,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1048,6 +1057,29 @@
       </c>
       <c r="G6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>24330051920369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>Mat</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Formación socioemocional II</t>
   </si>
   <si>
+    <t>Ingles II</t>
+  </si>
+  <si>
     <t>Pensamiento matemático II</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>2AEV</t>
   </si>
   <si>
+    <t>2ALCV</t>
+  </si>
+  <si>
     <t>2APV</t>
   </si>
   <si>
@@ -82,6 +88,12 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
     <t>MUÑOZ</t>
   </si>
   <si>
@@ -94,12 +106,27 @@
     <t>VERA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
@@ -109,15 +136,24 @@
     <t>ROSAS</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>CHAPARRO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
     <t>ERWIN ISRAEL</t>
   </si>
   <si>
@@ -130,7 +166,16 @@
     <t>ALEYDA MONSERRAT</t>
   </si>
   <si>
+    <t>MAYKA XIMENA</t>
+  </si>
+  <si>
+    <t>EUNICE GUADALUPE</t>
+  </si>
+  <si>
     <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
   </si>
   <si>
     <t>JESUS ENRIQUE</t>
@@ -491,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -551,51 +596,51 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
       <c r="G3">
-        <v>60.87</v>
+        <v>42.86</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>72.73</v>
+        <v>60.87</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -603,24 +648,50 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>72.73</v>
+      </c>
+      <c r="H5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>83.33</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>7.3</v>
       </c>
     </row>
@@ -631,7 +702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -691,51 +762,51 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>65.22</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>81.81999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,24 +814,50 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>95.83</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>7.3</v>
       </c>
     </row>
@@ -771,7 +868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -831,51 +928,51 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>65.22</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>81.81999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -883,24 +980,50 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>95.83</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>8</v>
       </c>
     </row>
@@ -911,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -923,45 +1046,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920393</v>
+        <v>24330051920330</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -969,68 +1092,68 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920274</v>
+        <v>24330051920246</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920255</v>
+        <v>24330051920393</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920312</v>
+        <v>24330051920274</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1038,16 +1161,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920007</v>
+        <v>24330051920255</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1056,29 +1179,144 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>23330051920312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>24330051920220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>24330051920226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>22330051920007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>24330051920396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>24330051920369</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
